--- a/data/nzd0049/nzd0049.xlsx
+++ b/data/nzd0049/nzd0049.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G542"/>
+  <dimension ref="A1:G552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14135,6 +14135,266 @@
       <c r="G542" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>457.73</v>
+      </c>
+      <c r="C543" t="n">
+        <v>370.1522222222222</v>
+      </c>
+      <c r="D543" t="n">
+        <v>369.9042857142857</v>
+      </c>
+      <c r="E543" t="n">
+        <v>368.9790909090909</v>
+      </c>
+      <c r="F543" t="n">
+        <v>362.379090909091</v>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>473.385</v>
+      </c>
+      <c r="C544" t="n">
+        <v>385.1877777777778</v>
+      </c>
+      <c r="D544" t="n">
+        <v>379.7342857142857</v>
+      </c>
+      <c r="E544" t="n">
+        <v>375.0718181818182</v>
+      </c>
+      <c r="F544" t="n">
+        <v>373.8918181818182</v>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>473.215</v>
+      </c>
+      <c r="C545" t="n">
+        <v>372.1977777777778</v>
+      </c>
+      <c r="D545" t="n">
+        <v>372.4842857142857</v>
+      </c>
+      <c r="E545" t="n">
+        <v>370.2718181818182</v>
+      </c>
+      <c r="F545" t="n">
+        <v>364.7318181818182</v>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>457.57</v>
+      </c>
+      <c r="C546" t="n">
+        <v>364.8244444444445</v>
+      </c>
+      <c r="D546" t="n">
+        <v>376.5028571428572</v>
+      </c>
+      <c r="E546" t="inlineStr"/>
+      <c r="F546" t="inlineStr"/>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>466.885</v>
+      </c>
+      <c r="C547" t="n">
+        <v>369.8566666666667</v>
+      </c>
+      <c r="D547" t="n">
+        <v>376.2771428571429</v>
+      </c>
+      <c r="E547" t="n">
+        <v>381.4327272727273</v>
+      </c>
+      <c r="F547" t="n">
+        <v>376.1627272727272</v>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>483.49</v>
+      </c>
+      <c r="C548" t="n">
+        <v>380.7355555555556</v>
+      </c>
+      <c r="D548" t="n">
+        <v>382.9285714285714</v>
+      </c>
+      <c r="E548" t="n">
+        <v>384.7245454545454</v>
+      </c>
+      <c r="F548" t="n">
+        <v>378.6645454545454</v>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>460.645</v>
+      </c>
+      <c r="C549" t="n">
+        <v>369.7988888888889</v>
+      </c>
+      <c r="D549" t="n">
+        <v>377.2657142857143</v>
+      </c>
+      <c r="E549" t="n">
+        <v>373.180909090909</v>
+      </c>
+      <c r="F549" t="n">
+        <v>377.2609090909091</v>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>448.52</v>
+      </c>
+      <c r="C550" t="n">
+        <v>373.0011111111111</v>
+      </c>
+      <c r="D550" t="n">
+        <v>369.85</v>
+      </c>
+      <c r="E550" t="n">
+        <v>373.7854545454546</v>
+      </c>
+      <c r="F550" t="n">
+        <v>373.2854545454546</v>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>458.05</v>
+      </c>
+      <c r="C551" t="n">
+        <v>376.09</v>
+      </c>
+      <c r="D551" t="inlineStr"/>
+      <c r="E551" t="inlineStr"/>
+      <c r="F551" t="inlineStr"/>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>470.36</v>
+      </c>
+      <c r="C552" t="n">
+        <v>380.3</v>
+      </c>
+      <c r="D552" t="n">
+        <v>369.8257142857143</v>
+      </c>
+      <c r="E552" t="n">
+        <v>368.7309090909091</v>
+      </c>
+      <c r="F552" t="n">
+        <v>363.8809090909091</v>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -14149,7 +14409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B577"/>
+  <dimension ref="A1:B588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19927,6 +20187,116 @@
       </c>
       <c r="B577" t="n">
         <v>0.89</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>-0.29</v>
       </c>
     </row>
   </sheetData>
@@ -20095,28 +20465,28 @@
         <v>0.0896</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.9510428752554397</v>
+        <v>-0.7268113067139168</v>
       </c>
       <c r="J2" t="n">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="K2" t="n">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0205700937597354</v>
+        <v>0.01229905233967088</v>
       </c>
       <c r="M2" t="n">
-        <v>44.91250421409902</v>
+        <v>45.02432492082666</v>
       </c>
       <c r="N2" t="n">
-        <v>2251.484273460833</v>
+        <v>2261.658639255465</v>
       </c>
       <c r="O2" t="n">
-        <v>47.44980793913535</v>
+        <v>47.5568989659278</v>
       </c>
       <c r="P2" t="n">
-        <v>436.5032989676127</v>
+        <v>434.2183689498195</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -20172,28 +20542,28 @@
         <v>0.0466</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1194927885691847</v>
+        <v>-0.1340483354470593</v>
       </c>
       <c r="J3" t="n">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="K3" t="n">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01403934823259634</v>
+        <v>0.01801255098725352</v>
       </c>
       <c r="M3" t="n">
-        <v>5.67436615713864</v>
+        <v>5.686633455365685</v>
       </c>
       <c r="N3" t="n">
-        <v>53.68193691526076</v>
+        <v>53.55262758655694</v>
       </c>
       <c r="O3" t="n">
-        <v>7.326795815038165</v>
+        <v>7.317966082632315</v>
       </c>
       <c r="P3" t="n">
-        <v>380.8881989370432</v>
+        <v>381.0311637376227</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -20249,28 +20619,28 @@
         <v>0.0803</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09204330006795514</v>
+        <v>0.07976808469655204</v>
       </c>
       <c r="J4" t="n">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="K4" t="n">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01129153726144527</v>
+        <v>0.008705017820717642</v>
       </c>
       <c r="M4" t="n">
-        <v>4.914072990289642</v>
+        <v>4.912796959298199</v>
       </c>
       <c r="N4" t="n">
-        <v>39.65009604483748</v>
+        <v>39.47698663905184</v>
       </c>
       <c r="O4" t="n">
-        <v>6.296832223017973</v>
+        <v>6.2830714335468</v>
       </c>
       <c r="P4" t="n">
-        <v>376.0074278428522</v>
+        <v>376.1281485704362</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -20326,28 +20696,28 @@
         <v>0.0602</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05751369592832149</v>
+        <v>0.04929957865524454</v>
       </c>
       <c r="J5" t="n">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="K5" t="n">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003258146598072331</v>
+        <v>0.002452333488450198</v>
       </c>
       <c r="M5" t="n">
-        <v>5.7431304639276</v>
+        <v>5.742905592157668</v>
       </c>
       <c r="N5" t="n">
-        <v>55.24533574834703</v>
+        <v>54.9064921310568</v>
       </c>
       <c r="O5" t="n">
-        <v>7.432720615518051</v>
+        <v>7.409891506024687</v>
       </c>
       <c r="P5" t="n">
-        <v>375.6005544615124</v>
+        <v>375.6799939583229</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -20403,28 +20773,28 @@
         <v>0.0562</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03237418275829295</v>
+        <v>-0.04489238969749695</v>
       </c>
       <c r="J6" t="n">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="K6" t="n">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000876780497536811</v>
+        <v>0.001720451857335381</v>
       </c>
       <c r="M6" t="n">
-        <v>6.394896353672225</v>
+        <v>6.378458557978842</v>
       </c>
       <c r="N6" t="n">
-        <v>64.34639055143036</v>
+        <v>64.12377449444288</v>
       </c>
       <c r="O6" t="n">
-        <v>8.021620194912643</v>
+        <v>8.007732169250099</v>
       </c>
       <c r="P6" t="n">
-        <v>375.9198204022171</v>
+        <v>376.0416043056114</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -20461,7 +20831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G542"/>
+  <dimension ref="A1:G552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38639,6 +39009,356 @@
         </is>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>-35.01464521481347,173.85975009958008</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>-35.01517087111345,173.85860413261372</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>-35.01588880614064,173.8584942571717</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>-35.01660695503662,173.85860518647536</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>-35.017334098251595,173.85873926379173</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>-35.014677951491834,173.85991699779183</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>-35.01519436469998,173.8587664276272</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>-35.01588756574949,173.85860198337642</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>-35.016596625136295,173.85867077219402</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>-35.017309857044154,173.8588619567128</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>-35.01467759600056,173.85991518541837</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>-35.015174067379085,173.8586262125021</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>-35.01588848059454,173.85852253119134</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>-35.01660476328811,173.8586191021575</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>-35.017329144357234,173.85876433717743</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>-35.014644880231096,173.85974839381814</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>-35.01516254622008,173.85854662416685</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>-35.015887973515404,173.85856657040284</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr"/>
+      <c r="F546" t="inlineStr"/>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>-35.01466435915909,173.85984770116966</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>-35.01517040929526,173.8586009423638</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>-35.015888001997354,173.8585640968176</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>-35.016585840510146,173.85873924476195</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>-35.01730507540167,173.8588861581345</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>-35.014699082262126,173.86002472743075</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>-35.0151874079683,173.85871836996805</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>-35.01588716266036,173.8586369893037</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>-35.0165802593701,173.85877467982226</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>-35.01729980754982,173.85891282038597</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>-35.01465131048209,173.8597811764332</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>-35.015170319015006,173.85860031870595</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>-35.01588787725331,173.8585749304948</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>-35.0165998310775,173.85865041733243</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>-35.01730276306045,173.8588978616232</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>-35.014625955375486,173.859651911679</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>-35.01517532261971,173.85863488374605</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>-35.01588881299038,173.85849366225878</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>-35.016598806101484,173.85865692501673</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>-35.017311133806956,173.8588554946033</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>-35.014645883978176,173.85975351110406</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>-35.015180149127026,173.85866822546097</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr"/>
+      <c r="E551" t="inlineStr"/>
+      <c r="F551" t="inlineStr"/>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>-35.01467162583424,173.8598847482072</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>-35.015186727398564,173.85871366854533</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>-35.01588881605473,173.85849339611352</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>-35.01660737581516,173.8586025148992</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>-35.01733093602904,173.8587552689054</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0049/nzd0049.xlsx
+++ b/data/nzd0049/nzd0049.xlsx
@@ -20310,7 +20310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20401,35 +20401,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -20488,27 +20493,28 @@
       <c r="P2" t="n">
         <v>434.2183689498195</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.8548702893104 -35.013687938367255, 173.86476124832365 -35.01562802754532)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.8548702893104</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.01368793836726</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.8647612483236</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.01562802754532</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.859815768817</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.01465798295629</v>
       </c>
     </row>
@@ -20565,27 +20571,28 @@
       <c r="P3" t="n">
         <v>381.0311637376227</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.8546087071871 -35.01459242629918, 173.86462350536547 -35.016042071848716)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.8546087071871</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.01459242629918</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.8646235053655</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.01604207184872</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.8596161062763</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.01531724907395</v>
       </c>
     </row>
@@ -20642,27 +20649,28 @@
       <c r="P4" t="n">
         <v>376.1281485704362</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.85444050105707 -35.01593541276317, 173.86460867101687 -35.01581825163777)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.8544405010571</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.01593541276317</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.8646086710169</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.01581825163777</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.859524586037</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.01587683220047</v>
       </c>
     </row>
@@ -20719,27 +20727,28 @@
       <c r="P5" t="n">
         <v>375.6799939583229</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.85463324527424 -35.01723247411778, 173.8646204956582 -35.015659372288084)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.8546332452742</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.01723247411778</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.8646204956582</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.01565937228808</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.8596268704662</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.01644592320294</v>
       </c>
     </row>
@@ -20796,27 +20805,28 @@
       <c r="P6" t="n">
         <v>376.0416043056114</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.85487729529459 -35.018097061026744, 173.86476452805357 -35.01614348622596)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.8548772952946</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.01809706102674</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.8647645280536</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.01614348622596</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.8598209116741</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.01712027362635</v>
       </c>
     </row>

--- a/data/nzd0049/nzd0049.xlsx
+++ b/data/nzd0049/nzd0049.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G552"/>
+  <dimension ref="A1:G556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14393,6 +14393,114 @@
         <v>363.8809090909091</v>
       </c>
       <c r="G552" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>455.365</v>
+      </c>
+      <c r="C553" t="n">
+        <v>378.2111111111111</v>
+      </c>
+      <c r="D553" t="n">
+        <v>377.19</v>
+      </c>
+      <c r="E553" t="n">
+        <v>371.920909090909</v>
+      </c>
+      <c r="F553" t="n">
+        <v>383.2709090909091</v>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>354.93</v>
+      </c>
+      <c r="C554" t="n">
+        <v>365.3344444444445</v>
+      </c>
+      <c r="D554" t="n">
+        <v>365.8457142857143</v>
+      </c>
+      <c r="E554" t="n">
+        <v>357.9536363636363</v>
+      </c>
+      <c r="F554" t="n">
+        <v>369.4436363636364</v>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>337.64</v>
+      </c>
+      <c r="C555" t="n">
+        <v>343.1522222222222</v>
+      </c>
+      <c r="D555" t="n">
+        <v>343.5814285714285</v>
+      </c>
+      <c r="E555" t="n">
+        <v>344.0636363636364</v>
+      </c>
+      <c r="F555" t="n">
+        <v>354.9136363636364</v>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>357.49</v>
+      </c>
+      <c r="C556" t="n">
+        <v>372.7988888888889</v>
+      </c>
+      <c r="D556" t="n">
+        <v>379.52</v>
+      </c>
+      <c r="E556" t="n">
+        <v>374.8345454545454</v>
+      </c>
+      <c r="F556" t="n">
+        <v>383.6345454545455</v>
+      </c>
+      <c r="G556" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14409,7 +14517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B588"/>
+  <dimension ref="A1:B592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20297,6 +20405,46 @@
       </c>
       <c r="B588" t="n">
         <v>-0.29</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>-0.14</v>
       </c>
     </row>
   </sheetData>
@@ -20470,28 +20618,28 @@
         <v>0.0896</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7268113067139168</v>
+        <v>-0.7940651588121448</v>
       </c>
       <c r="J2" t="n">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K2" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01229905233967088</v>
+        <v>0.01467728418222902</v>
       </c>
       <c r="M2" t="n">
-        <v>45.02432492082666</v>
+        <v>45.16827892268684</v>
       </c>
       <c r="N2" t="n">
-        <v>2261.658639255465</v>
+        <v>2274.390884640714</v>
       </c>
       <c r="O2" t="n">
-        <v>47.5568989659278</v>
+        <v>47.69057437943806</v>
       </c>
       <c r="P2" t="n">
-        <v>434.2183689498195</v>
+        <v>434.9155756675929</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20548,28 +20696,28 @@
         <v>0.0466</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1340483354470593</v>
+        <v>-0.1544570490644001</v>
       </c>
       <c r="J3" t="n">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K3" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01801255098725352</v>
+        <v>0.0229636301702838</v>
       </c>
       <c r="M3" t="n">
-        <v>5.686633455365685</v>
+        <v>5.751689804439309</v>
       </c>
       <c r="N3" t="n">
-        <v>53.55262758655694</v>
+        <v>55.95473990180436</v>
       </c>
       <c r="O3" t="n">
-        <v>7.317966082632315</v>
+        <v>7.48029009476266</v>
       </c>
       <c r="P3" t="n">
-        <v>381.0311637376227</v>
+        <v>381.2347122957128</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20626,28 +20774,28 @@
         <v>0.0803</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07976808469655204</v>
+        <v>0.06093249431746743</v>
       </c>
       <c r="J4" t="n">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K4" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008705017820717642</v>
+        <v>0.004834907340770633</v>
       </c>
       <c r="M4" t="n">
-        <v>4.912796959298199</v>
+        <v>4.982247638214093</v>
       </c>
       <c r="N4" t="n">
-        <v>39.47698663905184</v>
+        <v>41.99264322370247</v>
       </c>
       <c r="O4" t="n">
-        <v>6.2830714335468</v>
+        <v>6.480173085937016</v>
       </c>
       <c r="P4" t="n">
-        <v>376.1281485704362</v>
+        <v>376.3158454865869</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20704,28 +20852,28 @@
         <v>0.0602</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04929957865524454</v>
+        <v>0.0254443960983406</v>
       </c>
       <c r="J5" t="n">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K5" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002452333488450198</v>
+        <v>0.0006298046084728393</v>
       </c>
       <c r="M5" t="n">
-        <v>5.742905592157668</v>
+        <v>5.828898229858888</v>
       </c>
       <c r="N5" t="n">
-        <v>54.9064921310568</v>
+        <v>57.55078116154068</v>
       </c>
       <c r="O5" t="n">
-        <v>7.409891506024687</v>
+        <v>7.586223115723705</v>
       </c>
       <c r="P5" t="n">
-        <v>375.6799939583229</v>
+        <v>375.9139019361077</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20782,28 +20930,28 @@
         <v>0.0562</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04489238969749695</v>
+        <v>-0.04831877738401227</v>
       </c>
       <c r="J6" t="n">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K6" t="n">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001720451857335381</v>
+        <v>0.001989116283257153</v>
       </c>
       <c r="M6" t="n">
-        <v>6.378458557978842</v>
+        <v>6.414897931678344</v>
       </c>
       <c r="N6" t="n">
-        <v>64.12377449444288</v>
+        <v>64.81004201347822</v>
       </c>
       <c r="O6" t="n">
-        <v>8.007732169250099</v>
+        <v>8.050468434412883</v>
       </c>
       <c r="P6" t="n">
-        <v>376.0416043056114</v>
+        <v>376.0755331044876</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20841,7 +20989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G552"/>
+  <dimension ref="A1:G556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39369,6 +39517,154 @@
         </is>
       </c>
     </row>
+    <row r="553">
+      <c r="A553" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>-35.01464026926512,173.85972488628747</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>-35.01518346343911,173.85869112090694</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>-35.01588788680742,173.85857410074786</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>-35.016601967342204,173.85863685394776</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>-35.017290108332084,173.8589619110846</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>-35.01443024064413,173.85865415028402</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>-35.015163343119305,173.85855212914598</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>-35.015889318240546,173.85844977960187</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>-35.01662564802842,173.85848650192008</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>-35.01731922315382,173.85881455175775</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>-35.014394083015176,173.8584698223909</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>-35.01512868211149,173.8583126926324</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>-35.01589212719993,173.85820578700356</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>-35.01664919751971,173.85833698161224</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>-35.01734981745266,173.85865970324414</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>-35.01443559420774,173.85868144233936</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>-35.015175006639424,173.85863270094325</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>-35.01588759278998,173.858599635036</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>-35.016597027420445,173.85866821805044</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>-35.0172893426539,173.8589657864106</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0049/nzd0049.xlsx
+++ b/data/nzd0049/nzd0049.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G556"/>
+  <dimension ref="A1:G560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14501,6 +14501,114 @@
         <v>383.6345454545455</v>
       </c>
       <c r="G556" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>356.48</v>
+      </c>
+      <c r="C557" t="n">
+        <v>373.4311111111111</v>
+      </c>
+      <c r="D557" t="n">
+        <v>376.17</v>
+      </c>
+      <c r="E557" t="n">
+        <v>367.5854545454546</v>
+      </c>
+      <c r="F557" t="n">
+        <v>360.5354545454546</v>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>378.135</v>
+      </c>
+      <c r="C558" t="n">
+        <v>373.2222222222222</v>
+      </c>
+      <c r="D558" t="n">
+        <v>380.8714285714286</v>
+      </c>
+      <c r="E558" t="n">
+        <v>376.7790909090909</v>
+      </c>
+      <c r="F558" t="n">
+        <v>387.139090909091</v>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>375.365</v>
+      </c>
+      <c r="C559" t="n">
+        <v>380.7922222222222</v>
+      </c>
+      <c r="D559" t="n">
+        <v>374.7685714285714</v>
+      </c>
+      <c r="E559" t="n">
+        <v>380.1836363636364</v>
+      </c>
+      <c r="F559" t="n">
+        <v>389.7236363636364</v>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>361.475</v>
+      </c>
+      <c r="C560" t="n">
+        <v>378.4944444444445</v>
+      </c>
+      <c r="D560" t="n">
+        <v>379.0071428571428</v>
+      </c>
+      <c r="E560" t="n">
+        <v>371.210909090909</v>
+      </c>
+      <c r="F560" t="n">
+        <v>369.740909090909</v>
+      </c>
+      <c r="G560" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14517,7 +14625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B592"/>
+  <dimension ref="A1:B596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20445,6 +20553,46 @@
       </c>
       <c r="B592" t="n">
         <v>-0.14</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -20618,28 +20766,28 @@
         <v>0.0896</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7940651588121448</v>
+        <v>-0.8723141020276474</v>
       </c>
       <c r="J2" t="n">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="K2" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01467728418222902</v>
+        <v>0.01779769078002291</v>
       </c>
       <c r="M2" t="n">
-        <v>45.16827892268684</v>
+        <v>45.18552126370913</v>
       </c>
       <c r="N2" t="n">
-        <v>2274.390884640714</v>
+        <v>2273.692039713594</v>
       </c>
       <c r="O2" t="n">
-        <v>47.69057437943806</v>
+        <v>47.68324695019828</v>
       </c>
       <c r="P2" t="n">
-        <v>434.9155756675929</v>
+        <v>435.7289656372281</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20696,28 +20844,28 @@
         <v>0.0466</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1544570490644001</v>
+        <v>-0.1556689015296716</v>
       </c>
       <c r="J3" t="n">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="K3" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0229636301702838</v>
+        <v>0.02366035305763159</v>
       </c>
       <c r="M3" t="n">
-        <v>5.751689804439309</v>
+        <v>5.730122320679782</v>
       </c>
       <c r="N3" t="n">
-        <v>55.95473990180436</v>
+        <v>55.57731779851186</v>
       </c>
       <c r="O3" t="n">
-        <v>7.48029009476266</v>
+        <v>7.455019637701289</v>
       </c>
       <c r="P3" t="n">
-        <v>381.2347122957128</v>
+        <v>381.2468268522913</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20774,28 +20922,28 @@
         <v>0.0803</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06093249431746743</v>
+        <v>0.06064626993718963</v>
       </c>
       <c r="J4" t="n">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="K4" t="n">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004834907340770633</v>
+        <v>0.00486543414790086</v>
       </c>
       <c r="M4" t="n">
-        <v>4.982247638214093</v>
+        <v>4.959122643405655</v>
       </c>
       <c r="N4" t="n">
-        <v>41.99264322370247</v>
+        <v>41.68577441072051</v>
       </c>
       <c r="O4" t="n">
-        <v>6.480173085937016</v>
+        <v>6.456452153522126</v>
       </c>
       <c r="P4" t="n">
-        <v>376.3158454865869</v>
+        <v>376.3187000380851</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20852,28 +21000,28 @@
         <v>0.0602</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0254443960983406</v>
+        <v>0.02126248476087915</v>
       </c>
       <c r="J5" t="n">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="K5" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0006298046084728393</v>
+        <v>0.0004454212720655937</v>
       </c>
       <c r="M5" t="n">
-        <v>5.828898229858888</v>
+        <v>5.819880131794454</v>
       </c>
       <c r="N5" t="n">
-        <v>57.55078116154068</v>
+        <v>57.31969984788279</v>
       </c>
       <c r="O5" t="n">
-        <v>7.586223115723705</v>
+        <v>7.570977469777782</v>
       </c>
       <c r="P5" t="n">
-        <v>375.9139019361077</v>
+        <v>375.9551041980238</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20930,28 +21078,28 @@
         <v>0.0562</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04831877738401227</v>
+        <v>-0.04515476212885384</v>
       </c>
       <c r="J6" t="n">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="K6" t="n">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001989116283257153</v>
+        <v>0.001733197712014523</v>
       </c>
       <c r="M6" t="n">
-        <v>6.414897931678344</v>
+        <v>6.459858502546619</v>
       </c>
       <c r="N6" t="n">
-        <v>64.81004201347822</v>
+        <v>65.54496083846021</v>
       </c>
       <c r="O6" t="n">
-        <v>8.050468434412883</v>
+        <v>8.095984241490358</v>
       </c>
       <c r="P6" t="n">
-        <v>376.0755331044876</v>
+        <v>376.0441005188909</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20989,7 +21137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G556"/>
+  <dimension ref="A1:G560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39665,6 +39813,154 @@
         </is>
       </c>
     </row>
+    <row r="557">
+      <c r="A557" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>-35.01443348206035,173.85867067477022</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>-35.015175994511765,173.85863952520037</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>-35.01588801551725,173.85856292264734</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>-35.01660931786922,173.85859018454715</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>-35.01733798020232,173.85871961586597</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>-35.01447876754418,173.8589015379657</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>-35.01517566811462,173.85863727043701</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>-35.015887422253805,173.8586144452361</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>-35.01659373053838,173.858689150284</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>-35.01728196342414,173.85900313486115</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>-35.014472974874835,173.85887200707916</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>-35.01518749651181,173.85871898163273</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>-35.01588819235636,173.8585475645008</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>-35.016587958288845,173.85872579881396</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>-35.01727652135451,173.8590306787335</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>-35.01444392777003,173.85872392626825</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>-35.015183906157255,173.85869417923013</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>-35.01588765750674,173.85859401467462</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>-35.01660317110976,173.85862921108782</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>-35.017318597215734,173.85881771983912</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0049/nzd0049.xlsx
+++ b/data/nzd0049/nzd0049.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G560"/>
+  <dimension ref="A1:G561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14609,6 +14609,33 @@
         <v>369.740909090909</v>
       </c>
       <c r="G560" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>355.96</v>
+      </c>
+      <c r="C561" t="n">
+        <v>361.5133333333333</v>
+      </c>
+      <c r="D561" t="n">
+        <v>370.4614285714285</v>
+      </c>
+      <c r="E561" t="n">
+        <v>364.95</v>
+      </c>
+      <c r="F561" t="n">
+        <v>374.69</v>
+      </c>
+      <c r="G561" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14625,7 +14652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B596"/>
+  <dimension ref="A1:B597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20593,6 +20620,16 @@
       </c>
       <c r="B596" t="n">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -20766,28 +20803,28 @@
         <v>0.0896</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8723141020276474</v>
+        <v>-0.8963025013933626</v>
       </c>
       <c r="J2" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K2" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01779769078002291</v>
+        <v>0.01878761006512875</v>
       </c>
       <c r="M2" t="n">
-        <v>45.18552126370913</v>
+        <v>45.21353201554291</v>
       </c>
       <c r="N2" t="n">
-        <v>2273.692039713594</v>
+        <v>2275.949169122376</v>
       </c>
       <c r="O2" t="n">
-        <v>47.68324695019828</v>
+        <v>47.70690902922108</v>
       </c>
       <c r="P2" t="n">
-        <v>435.7289656372281</v>
+        <v>435.9788920279666</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20844,28 +20881,28 @@
         <v>0.0466</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1556689015296716</v>
+        <v>-0.1618560483123205</v>
       </c>
       <c r="J3" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K3" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02366035305763159</v>
+        <v>0.02540151322368511</v>
       </c>
       <c r="M3" t="n">
-        <v>5.730122320679782</v>
+        <v>5.75288398465152</v>
       </c>
       <c r="N3" t="n">
-        <v>55.57731779851186</v>
+        <v>55.97713698145142</v>
       </c>
       <c r="O3" t="n">
-        <v>7.455019637701289</v>
+        <v>7.481787017915668</v>
       </c>
       <c r="P3" t="n">
-        <v>381.2468268522913</v>
+        <v>381.3089456428621</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20922,28 +20959,28 @@
         <v>0.0803</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06064626993718963</v>
+        <v>0.05769811880240277</v>
       </c>
       <c r="J4" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K4" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00486543414790086</v>
+        <v>0.004412061960339719</v>
       </c>
       <c r="M4" t="n">
-        <v>4.959122643405655</v>
+        <v>4.965476443989524</v>
       </c>
       <c r="N4" t="n">
-        <v>41.68577441072051</v>
+        <v>41.71331843983841</v>
       </c>
       <c r="O4" t="n">
-        <v>6.456452153522126</v>
+        <v>6.458584863562482</v>
       </c>
       <c r="P4" t="n">
-        <v>376.3187000380851</v>
+        <v>376.3482859512833</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21000,28 +21037,28 @@
         <v>0.0602</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02126248476087915</v>
+        <v>0.01667585793900293</v>
       </c>
       <c r="J5" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K5" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004454212720655937</v>
+        <v>0.0002738326460418605</v>
       </c>
       <c r="M5" t="n">
-        <v>5.819880131794454</v>
+        <v>5.834072153986348</v>
       </c>
       <c r="N5" t="n">
-        <v>57.31969984788279</v>
+        <v>57.47996509007132</v>
       </c>
       <c r="O5" t="n">
-        <v>7.570977469777782</v>
+        <v>7.581554266116633</v>
       </c>
       <c r="P5" t="n">
-        <v>375.9551041980238</v>
+        <v>376.0004121816987</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21078,28 +21115,28 @@
         <v>0.0562</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04515476212885384</v>
+        <v>-0.04523090806146821</v>
       </c>
       <c r="J6" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K6" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001733197712014523</v>
+        <v>0.001746472239729902</v>
       </c>
       <c r="M6" t="n">
-        <v>6.459858502546619</v>
+        <v>6.44647922394233</v>
       </c>
       <c r="N6" t="n">
-        <v>65.54496083846021</v>
+        <v>65.40528183389482</v>
       </c>
       <c r="O6" t="n">
-        <v>8.095984241490358</v>
+        <v>8.0873532032362</v>
       </c>
       <c r="P6" t="n">
-        <v>376.0441005188909</v>
+        <v>376.0448575357443</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21137,7 +21174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G560"/>
+  <dimension ref="A1:G561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39961,6 +39998,43 @@
         </is>
       </c>
     </row>
+    <row r="561">
+      <c r="A561" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>-35.014432394617735,173.85866513107152</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>-35.015157372445636,173.85851088378212</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>-35.01588873584056,173.85850036285703</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>-35.01661378613012,173.85856181494918</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>-35.01730817638733,173.8588704630575</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0049/nzd0049.xlsx
+++ b/data/nzd0049/nzd0049.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G561"/>
+  <dimension ref="A1:G564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14636,6 +14636,87 @@
         <v>374.69</v>
       </c>
       <c r="G561" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>366.195</v>
+      </c>
+      <c r="C562" t="n">
+        <v>371.0866666666667</v>
+      </c>
+      <c r="D562" t="n">
+        <v>373.0928571428572</v>
+      </c>
+      <c r="E562" t="n">
+        <v>375.4945454545455</v>
+      </c>
+      <c r="F562" t="n">
+        <v>387.0345454545454</v>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>363.02</v>
+      </c>
+      <c r="C563" t="n">
+        <v>381.9855555555556</v>
+      </c>
+      <c r="D563" t="n">
+        <v>370.8985714285715</v>
+      </c>
+      <c r="E563" t="n">
+        <v>381.7045454545454</v>
+      </c>
+      <c r="F563" t="n">
+        <v>377.3145454545455</v>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>353.485</v>
+      </c>
+      <c r="C564" t="n">
+        <v>408.2133333333333</v>
+      </c>
+      <c r="D564" t="n">
+        <v>370.2242857142857</v>
+      </c>
+      <c r="E564" t="n">
+        <v>366.1609090909091</v>
+      </c>
+      <c r="F564" t="n">
+        <v>381.800909090909</v>
+      </c>
+      <c r="G564" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14652,7 +14733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B597"/>
+  <dimension ref="A1:B600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20630,6 +20711,36 @@
       </c>
       <c r="B597" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -20803,28 +20914,28 @@
         <v>0.0896</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8963025013933626</v>
+        <v>-0.9604867351107833</v>
       </c>
       <c r="J2" t="n">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="K2" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01878761006512875</v>
+        <v>0.02160532837782081</v>
       </c>
       <c r="M2" t="n">
-        <v>45.21353201554291</v>
+        <v>45.25338428990342</v>
       </c>
       <c r="N2" t="n">
-        <v>2275.949169122376</v>
+        <v>2278.674019443895</v>
       </c>
       <c r="O2" t="n">
-        <v>47.70690902922108</v>
+        <v>47.73545872246223</v>
       </c>
       <c r="P2" t="n">
-        <v>435.9788920279666</v>
+        <v>436.6484722605998</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20881,28 +20992,28 @@
         <v>0.0466</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1618560483123205</v>
+        <v>-0.1502479842578797</v>
       </c>
       <c r="J3" t="n">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="K3" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02540151322368511</v>
+        <v>0.02142495909160658</v>
       </c>
       <c r="M3" t="n">
-        <v>5.75288398465152</v>
+        <v>5.801380836147943</v>
       </c>
       <c r="N3" t="n">
-        <v>55.97713698145142</v>
+        <v>57.76199817959525</v>
       </c>
       <c r="O3" t="n">
-        <v>7.481787017915668</v>
+        <v>7.600131458046976</v>
       </c>
       <c r="P3" t="n">
-        <v>381.3089456428621</v>
+        <v>381.1921100516186</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20959,28 +21070,28 @@
         <v>0.0803</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05769811880240277</v>
+        <v>0.05015533913845437</v>
       </c>
       <c r="J4" t="n">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="K4" t="n">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004412061960339719</v>
+        <v>0.003357473226693775</v>
       </c>
       <c r="M4" t="n">
-        <v>4.965476443989524</v>
+        <v>4.977421703922988</v>
       </c>
       <c r="N4" t="n">
-        <v>41.71331843983841</v>
+        <v>41.71588060464676</v>
       </c>
       <c r="O4" t="n">
-        <v>6.458584863562482</v>
+        <v>6.458783213937959</v>
       </c>
       <c r="P4" t="n">
-        <v>376.3482859512833</v>
+        <v>376.424079821673</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21037,28 +21148,28 @@
         <v>0.0602</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01667585793900293</v>
+        <v>0.01435197642005998</v>
       </c>
       <c r="J5" t="n">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="K5" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002738326460418605</v>
+        <v>0.0002043775024836991</v>
       </c>
       <c r="M5" t="n">
-        <v>5.834072153986348</v>
+        <v>5.832954405473583</v>
       </c>
       <c r="N5" t="n">
-        <v>57.47996509007132</v>
+        <v>57.39858991694716</v>
       </c>
       <c r="O5" t="n">
-        <v>7.581554266116633</v>
+        <v>7.576185710299554</v>
       </c>
       <c r="P5" t="n">
-        <v>376.0004121816987</v>
+        <v>376.0234354925197</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21115,28 +21226,28 @@
         <v>0.0562</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04523090806146821</v>
+        <v>-0.03671162773737461</v>
       </c>
       <c r="J6" t="n">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="K6" t="n">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001746472239729902</v>
+        <v>0.00115837162815402</v>
       </c>
       <c r="M6" t="n">
-        <v>6.44647922394233</v>
+        <v>6.45120188422379</v>
       </c>
       <c r="N6" t="n">
-        <v>65.40528183389482</v>
+        <v>65.41071065715798</v>
       </c>
       <c r="O6" t="n">
-        <v>8.0873532032362</v>
+        <v>8.087688832859358</v>
       </c>
       <c r="P6" t="n">
-        <v>376.0448575357443</v>
+        <v>375.9600849255824</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21174,7 +21285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G561"/>
+  <dimension ref="A1:G564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40035,6 +40146,117 @@
         </is>
       </c>
     </row>
+    <row r="562">
+      <c r="A562" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>-35.01445379836893,173.85877424601412</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>-35.01517233122225,173.85861421908072</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>-35.01588840380363,173.85852920047833</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>-35.016595908423014,173.8586753226797</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>-35.01728218355696,173.85900202070516</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>-35.01444715872051,173.85874039745497</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>-35.015189361133,173.85873186257183</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>-35.01588868068179,173.85850515347167</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>-35.01658537965417,173.85874217077236</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>-35.01730265012322,173.85889843323397</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>-35.014427218805686,173.85863874519964</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>-35.01523034252022,173.85901496752388</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>-35.0158887657632,173.85849776402688</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>-35.01661173310453,173.8585748498942</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>-35.017293203584885,173.85894624507847</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0049/nzd0049.xlsx
+++ b/data/nzd0049/nzd0049.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G564"/>
+  <dimension ref="A1:G568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14717,6 +14717,114 @@
         <v>381.800909090909</v>
       </c>
       <c r="G564" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>358.71</v>
+      </c>
+      <c r="C565" t="n">
+        <v>373.75</v>
+      </c>
+      <c r="D565" t="n">
+        <v>368.7828571428572</v>
+      </c>
+      <c r="E565" t="n">
+        <v>374.5563636363637</v>
+      </c>
+      <c r="F565" t="n">
+        <v>386.3563636363637</v>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>363.9</v>
+      </c>
+      <c r="C566" t="n">
+        <v>382.1511111111111</v>
+      </c>
+      <c r="D566" t="n">
+        <v>378.3042857142857</v>
+      </c>
+      <c r="E566" t="n">
+        <v>381.9136363636364</v>
+      </c>
+      <c r="F566" t="n">
+        <v>371.0336363636364</v>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>357.185</v>
+      </c>
+      <c r="C567" t="n">
+        <v>374.8911111111111</v>
+      </c>
+      <c r="D567" t="n">
+        <v>378.6071428571428</v>
+      </c>
+      <c r="E567" t="n">
+        <v>371.4445454545455</v>
+      </c>
+      <c r="F567" t="n">
+        <v>376.0345454545454</v>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>354.405</v>
+      </c>
+      <c r="C568" t="n">
+        <v>367.36</v>
+      </c>
+      <c r="D568" t="n">
+        <v>377.3014285714286</v>
+      </c>
+      <c r="E568" t="n">
+        <v>369.0781818181818</v>
+      </c>
+      <c r="F568" t="n">
+        <v>382.3781818181818</v>
+      </c>
+      <c r="G568" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14733,7 +14841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B600"/>
+  <dimension ref="A1:B604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20741,6 +20849,46 @@
       </c>
       <c r="B600" t="n">
         <v>-0.93</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>-0.45</v>
       </c>
     </row>
   </sheetData>
@@ -20914,28 +21062,28 @@
         <v>0.0896</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.9604867351107833</v>
+        <v>-1.046513014362579</v>
       </c>
       <c r="J2" t="n">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="K2" t="n">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02160532837782081</v>
+        <v>0.02567315959476424</v>
       </c>
       <c r="M2" t="n">
-        <v>45.25338428990342</v>
+        <v>45.3050740542152</v>
       </c>
       <c r="N2" t="n">
-        <v>2278.674019443895</v>
+        <v>2283.163032383441</v>
       </c>
       <c r="O2" t="n">
-        <v>47.73545872246223</v>
+        <v>47.78245527788877</v>
       </c>
       <c r="P2" t="n">
-        <v>436.6484722605998</v>
+        <v>437.5485423285924</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20992,28 +21140,28 @@
         <v>0.0466</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1502479842578797</v>
+        <v>-0.1544686178583926</v>
       </c>
       <c r="J3" t="n">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="K3" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02142495909160658</v>
+        <v>0.02286060147663294</v>
       </c>
       <c r="M3" t="n">
-        <v>5.801380836147943</v>
+        <v>5.797028263269383</v>
       </c>
       <c r="N3" t="n">
-        <v>57.76199817959525</v>
+        <v>57.57299795796316</v>
       </c>
       <c r="O3" t="n">
-        <v>7.600131458046976</v>
+        <v>7.587687260157944</v>
       </c>
       <c r="P3" t="n">
-        <v>381.1921100516186</v>
+        <v>381.23474646968</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21070,28 +21218,28 @@
         <v>0.0803</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05015533913845437</v>
+        <v>0.0471392796125899</v>
       </c>
       <c r="J4" t="n">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="K4" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003357473226693775</v>
+        <v>0.003003060558742221</v>
       </c>
       <c r="M4" t="n">
-        <v>4.977421703922988</v>
+        <v>4.95974284753019</v>
       </c>
       <c r="N4" t="n">
-        <v>41.71588060464676</v>
+        <v>41.53697231784622</v>
       </c>
       <c r="O4" t="n">
-        <v>6.458783213937959</v>
+        <v>6.444918332907425</v>
       </c>
       <c r="P4" t="n">
-        <v>376.424079821673</v>
+        <v>376.4544187687978</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21148,28 +21296,28 @@
         <v>0.0602</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01435197642005998</v>
+        <v>0.01105147454470646</v>
       </c>
       <c r="J5" t="n">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="K5" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002043775024836991</v>
+        <v>0.0001226867435237811</v>
       </c>
       <c r="M5" t="n">
-        <v>5.832954405473583</v>
+        <v>5.826483705989973</v>
       </c>
       <c r="N5" t="n">
-        <v>57.39858991694716</v>
+        <v>57.15087333157651</v>
       </c>
       <c r="O5" t="n">
-        <v>7.576185710299554</v>
+        <v>7.559819662635909</v>
       </c>
       <c r="P5" t="n">
-        <v>376.0234354925197</v>
+        <v>376.0562408595019</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21226,28 +21374,28 @@
         <v>0.0562</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03671162773737461</v>
+        <v>-0.03058805211662946</v>
       </c>
       <c r="J6" t="n">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="K6" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00115837162815402</v>
+        <v>0.0008126573283100402</v>
       </c>
       <c r="M6" t="n">
-        <v>6.45120188422379</v>
+        <v>6.44669429175081</v>
       </c>
       <c r="N6" t="n">
-        <v>65.41071065715798</v>
+        <v>65.27776726708257</v>
       </c>
       <c r="O6" t="n">
-        <v>8.087688832859358</v>
+        <v>8.079465778569928</v>
       </c>
       <c r="P6" t="n">
-        <v>375.9600849255824</v>
+        <v>375.8989504902468</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21285,7 +21433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G564"/>
+  <dimension ref="A1:G568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40257,6 +40405,154 @@
         </is>
       </c>
     </row>
+    <row r="565">
+      <c r="A565" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>-35.014438145513225,173.85869444871068</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>-35.015176492788164,173.85864296731256</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>-35.015888947641194,173.85848196752295</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>-35.016597499063884,173.8586652235372</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>-35.01728361154882,173.85899479322342</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>-35.01444899900197,173.85874977910234</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>-35.015189619818685,173.8587336495923</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>-35.0158877461989,173.85858631211806</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>-35.01658502514954,173.8587444215496</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>-35.01731587524548,173.8588314966326</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>-35.01443495638115,173.85867819074664</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>-35.015178275818265,173.8586552845575</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>-35.01588770798201,173.85858963110584</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>-35.016602774991675,173.85863172608785</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>-35.017305345302354,173.85888479208154</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>-35.014429142744575,173.85864855328091</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>-35.01516650814356,173.85857399314895</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>-35.01588787274664,173.85857532188487</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>-35.01660678703345,173.85860625314862</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>-35.0172919880715,173.85895239715896</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0049/nzd0049.xlsx
+++ b/data/nzd0049/nzd0049.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G568"/>
+  <dimension ref="A1:G573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14825,6 +14825,139 @@
         <v>382.3781818181818</v>
       </c>
       <c r="G568" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>375.26</v>
+      </c>
+      <c r="C569" t="n">
+        <v>373.0044444444445</v>
+      </c>
+      <c r="D569" t="n">
+        <v>378.5257142857143</v>
+      </c>
+      <c r="E569" t="n">
+        <v>383.0236363636364</v>
+      </c>
+      <c r="F569" t="n">
+        <v>376.5736363636364</v>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>355.325</v>
+      </c>
+      <c r="C570" t="n">
+        <v>369.7133333333333</v>
+      </c>
+      <c r="D570" t="n">
+        <v>370.92</v>
+      </c>
+      <c r="E570" t="n">
+        <v>367.7718181818182</v>
+      </c>
+      <c r="F570" t="n">
+        <v>368.9618181818182</v>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>363.385</v>
+      </c>
+      <c r="C571" t="inlineStr"/>
+      <c r="D571" t="n">
+        <v>380.3514285714285</v>
+      </c>
+      <c r="E571" t="n">
+        <v>366.2490909090909</v>
+      </c>
+      <c r="F571" t="n">
+        <v>359.7990909090909</v>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:17:38+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>356.215</v>
+      </c>
+      <c r="C572" t="n">
+        <v>356.4722222222222</v>
+      </c>
+      <c r="D572" t="n">
+        <v>358.4814285714286</v>
+      </c>
+      <c r="E572" t="n">
+        <v>354.629090909091</v>
+      </c>
+      <c r="F572" t="n">
+        <v>344.3490909090909</v>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>354.99</v>
+      </c>
+      <c r="C573" t="n">
+        <v>373.5255555555556</v>
+      </c>
+      <c r="D573" t="n">
+        <v>378.5185714285714</v>
+      </c>
+      <c r="E573" t="n">
+        <v>371.1145454545455</v>
+      </c>
+      <c r="F573" t="n">
+        <v>363.1345454545455</v>
+      </c>
+      <c r="G573" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14841,7 +14974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B604"/>
+  <dimension ref="A1:B609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20889,6 +21022,56 @@
       </c>
       <c r="B604" t="n">
         <v>-0.45</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -21062,28 +21245,28 @@
         <v>0.0896</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.046513014362579</v>
+        <v>-1.144081727077204</v>
       </c>
       <c r="J2" t="n">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="K2" t="n">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02567315959476424</v>
+        <v>0.03076633971683396</v>
       </c>
       <c r="M2" t="n">
-        <v>45.3050740542152</v>
+        <v>45.30941076211307</v>
       </c>
       <c r="N2" t="n">
-        <v>2283.163032383441</v>
+        <v>2284.673218556381</v>
       </c>
       <c r="O2" t="n">
-        <v>47.78245527788877</v>
+        <v>47.79825539239252</v>
       </c>
       <c r="P2" t="n">
-        <v>437.5485423285924</v>
+        <v>438.574896420254</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21140,28 +21323,28 @@
         <v>0.0466</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1544686178583926</v>
+        <v>-0.1680248130344578</v>
       </c>
       <c r="J3" t="n">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="K3" t="n">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02286060147663294</v>
+        <v>0.02687169886231433</v>
       </c>
       <c r="M3" t="n">
-        <v>5.797028263269383</v>
+        <v>5.826044635147639</v>
       </c>
       <c r="N3" t="n">
-        <v>57.57299795796316</v>
+        <v>58.1496233071908</v>
       </c>
       <c r="O3" t="n">
-        <v>7.587687260157944</v>
+        <v>7.625590030101986</v>
       </c>
       <c r="P3" t="n">
-        <v>381.23474646968</v>
+        <v>381.3721449326832</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21218,28 +21401,28 @@
         <v>0.0803</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0471392796125899</v>
+        <v>0.03902199201461825</v>
       </c>
       <c r="J4" t="n">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="K4" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003003060558742221</v>
+        <v>0.002057876702082462</v>
       </c>
       <c r="M4" t="n">
-        <v>4.95974284753019</v>
+        <v>4.975230510295065</v>
       </c>
       <c r="N4" t="n">
-        <v>41.53697231784622</v>
+        <v>41.97391547268052</v>
       </c>
       <c r="O4" t="n">
-        <v>6.444918332907425</v>
+        <v>6.478727920871544</v>
       </c>
       <c r="P4" t="n">
-        <v>376.4544187687978</v>
+        <v>376.5366684065169</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21296,28 +21479,28 @@
         <v>0.0602</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01105147454470646</v>
+        <v>-0.003569037677201614</v>
       </c>
       <c r="J5" t="n">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="K5" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001226867435237811</v>
+        <v>1.272469156377021e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>5.826483705989973</v>
+        <v>5.88061042671517</v>
       </c>
       <c r="N5" t="n">
-        <v>57.15087333157651</v>
+        <v>58.03051130187622</v>
       </c>
       <c r="O5" t="n">
-        <v>7.559819662635909</v>
+        <v>7.617776007594094</v>
       </c>
       <c r="P5" t="n">
-        <v>376.0562408595019</v>
+        <v>376.2021449790525</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21374,28 +21557,28 @@
         <v>0.0562</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03058805211662946</v>
+        <v>-0.05445860355283197</v>
       </c>
       <c r="J6" t="n">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="K6" t="n">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0008126573283100402</v>
+        <v>0.002515905863321954</v>
       </c>
       <c r="M6" t="n">
-        <v>6.44669429175081</v>
+        <v>6.515170504210153</v>
       </c>
       <c r="N6" t="n">
-        <v>65.27776726708257</v>
+        <v>67.38372630522588</v>
       </c>
       <c r="O6" t="n">
-        <v>8.079465778569928</v>
+        <v>8.208759120916259</v>
       </c>
       <c r="P6" t="n">
-        <v>375.8989504902468</v>
+        <v>376.1386138183656</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21433,7 +21616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G568"/>
+  <dimension ref="A1:G573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40553,6 +40736,187 @@
         </is>
       </c>
     </row>
+    <row r="569">
+      <c r="A569" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>-35.01447275529698,173.8588708876774</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>-35.01517532782818,173.8586349197263</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>-35.01588771825732,173.85858873873647</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>-35.01658314319161,173.85875637024049</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>-35.01730421018802,173.85889053725452</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>-35.01443106668267,173.85865836136264</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>-35.01517018533077,173.85859939521256</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>-35.01588867797793,173.85850538830573</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>-35.016609001900186,173.8585921906759</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>-35.01732023767102,173.8588094169469</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>-35.01444792201915,173.85874428870636</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr"/>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>-35.01588748787258,173.85860874659673</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>-35.01661158359737,173.85857579913568</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>-35.0173395306847,173.85871176832111</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:17:38+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>-35.01443292788289,173.85866784961607</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>-35.015149495440504,173.85845646965424</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>-35.01589024740522,173.85836907496295</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>-35.016631284571666,173.85845071452295</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>-35.01737206198618,173.85854711513335</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>-35.01443036611835,173.85865478994154</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>-35.01517614208491,173.85864054464125</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>-35.01588771915866,173.85858866045848</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>-35.01660333448917,173.85862817377262</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>-35.01733250756969,173.85874731479035</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0049/nzd0049.xlsx
+++ b/data/nzd0049/nzd0049.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G573"/>
+  <dimension ref="A1:G574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14958,6 +14958,31 @@
         <v>363.1345454545455</v>
       </c>
       <c r="G573" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr"/>
+      <c r="C574" t="n">
+        <v>376.9911111111111</v>
+      </c>
+      <c r="D574" t="n">
+        <v>368.4885714285714</v>
+      </c>
+      <c r="E574" t="n">
+        <v>377.8481818181818</v>
+      </c>
+      <c r="F574" t="n">
+        <v>385.9581818181818</v>
+      </c>
+      <c r="G574" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14974,7 +14999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B609"/>
+  <dimension ref="A1:B610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21072,6 +21097,16 @@
       </c>
       <c r="B609" t="n">
         <v>0.52</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>-0.67</v>
       </c>
     </row>
   </sheetData>
@@ -21248,7 +21283,7 @@
         <v>-1.144081727077204</v>
       </c>
       <c r="J2" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K2" t="n">
         <v>448</v>
@@ -21323,28 +21358,28 @@
         <v>0.0466</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1680248130344578</v>
+        <v>-0.1680238489694451</v>
       </c>
       <c r="J3" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K3" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02687169886231433</v>
+        <v>0.0269747426163246</v>
       </c>
       <c r="M3" t="n">
-        <v>5.826044635147639</v>
+        <v>5.814086340215841</v>
       </c>
       <c r="N3" t="n">
-        <v>58.1496233071908</v>
+        <v>58.030219576633</v>
       </c>
       <c r="O3" t="n">
-        <v>7.625590030101986</v>
+        <v>7.617756859905217</v>
       </c>
       <c r="P3" t="n">
-        <v>381.3721449326832</v>
+        <v>381.3721351088178</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21401,28 +21436,28 @@
         <v>0.0803</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03902199201461825</v>
+        <v>0.03560277891543369</v>
       </c>
       <c r="J4" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K4" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002057876702082462</v>
+        <v>0.001713571935925251</v>
       </c>
       <c r="M4" t="n">
-        <v>4.975230510295065</v>
+        <v>4.985756702138667</v>
       </c>
       <c r="N4" t="n">
-        <v>41.97391547268052</v>
+        <v>42.05549240431326</v>
       </c>
       <c r="O4" t="n">
-        <v>6.478727920871544</v>
+        <v>6.485020617107802</v>
       </c>
       <c r="P4" t="n">
-        <v>376.5366684065169</v>
+        <v>376.571490660677</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21479,28 +21514,28 @@
         <v>0.0602</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.003569037677201614</v>
+        <v>-0.002914159934056495</v>
       </c>
       <c r="J5" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K5" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L5" t="n">
-        <v>1.272469156377021e-05</v>
+        <v>8.516506161071469e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>5.88061042671517</v>
+        <v>5.871696660796306</v>
       </c>
       <c r="N5" t="n">
-        <v>58.03051130187622</v>
+        <v>57.91658963709389</v>
       </c>
       <c r="O5" t="n">
-        <v>7.617776007594094</v>
+        <v>7.610294977009359</v>
       </c>
       <c r="P5" t="n">
-        <v>376.2021449790525</v>
+        <v>376.1955784749707</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21557,28 +21592,28 @@
         <v>0.0562</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05445860355283197</v>
+        <v>-0.05016754308241585</v>
       </c>
       <c r="J6" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K6" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002515905863321954</v>
+        <v>0.002136249145128555</v>
       </c>
       <c r="M6" t="n">
-        <v>6.515170504210153</v>
+        <v>6.524735728564556</v>
       </c>
       <c r="N6" t="n">
-        <v>67.38372630522588</v>
+        <v>67.50445185595619</v>
       </c>
       <c r="O6" t="n">
-        <v>8.208759120916259</v>
+        <v>8.216109289435979</v>
       </c>
       <c r="P6" t="n">
-        <v>376.1386138183656</v>
+        <v>376.0953228385734</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21616,7 +21651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G573"/>
+  <dimension ref="A1:G574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40917,6 +40952,39 @@
         </is>
       </c>
     </row>
+    <row r="574">
+      <c r="A574" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr"/>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>-35.01518155714595,173.85867795212744</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>-35.015888984773625,173.85847874246863</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>-35.01659191794532,173.858700658608</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>-35.01728444996743,173.85899054974203</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0049/nzd0049.xlsx
+++ b/data/nzd0049/nzd0049.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G574"/>
+  <dimension ref="A1:G575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14969,7 +14969,9 @@
           <t>2025-09-18 22:11:37+00:00</t>
         </is>
       </c>
-      <c r="B574" t="inlineStr"/>
+      <c r="B574" t="n">
+        <v>453.355</v>
+      </c>
       <c r="C574" t="n">
         <v>376.9911111111111</v>
       </c>
@@ -14983,6 +14985,33 @@
         <v>385.9581818181818</v>
       </c>
       <c r="G574" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>472.47</v>
+      </c>
+      <c r="C575" t="n">
+        <v>390.77</v>
+      </c>
+      <c r="D575" t="n">
+        <v>376.5271428571429</v>
+      </c>
+      <c r="E575" t="n">
+        <v>386.2136363636364</v>
+      </c>
+      <c r="F575" t="n">
+        <v>373.8936363636364</v>
+      </c>
+      <c r="G575" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14999,7 +15028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B610"/>
+  <dimension ref="A1:B611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21107,6 +21136,16 @@
       </c>
       <c r="B610" t="n">
         <v>-0.67</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -21651,7 +21690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G574"/>
+  <dimension ref="A1:G575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40958,7 +40997,11 @@
           <t>2025-09-18 22:11:37+00:00</t>
         </is>
       </c>
-      <c r="B574" t="inlineStr"/>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>-35.014636066067645,173.85970345765628</t>
+        </is>
+      </c>
       <c r="C574" t="inlineStr">
         <is>
           <t>-35.01518155714595,173.85867795212744</t>
@@ -40980,6 +41023,43 @@
         </is>
       </c>
       <c r="G574" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>-35.01467603811201,173.85990724295831</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>-35.01520308706373,173.85882668261183</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>-35.015887970450905,173.8585668365481</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>-35.01657773467539,173.8587907092679</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>-35.01730985321577,173.8588619760894</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0049/nzd0049.xlsx
+++ b/data/nzd0049/nzd0049.xlsx
@@ -21319,28 +21319,28 @@
         <v>0.0896</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.144081727077204</v>
+        <v>-1.101084836872473</v>
       </c>
       <c r="J2" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K2" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03076633971683396</v>
+        <v>0.02862005226086628</v>
       </c>
       <c r="M2" t="n">
-        <v>45.30941076211307</v>
+        <v>45.36431759777971</v>
       </c>
       <c r="N2" t="n">
-        <v>2284.673218556381</v>
+        <v>2287.833864632271</v>
       </c>
       <c r="O2" t="n">
-        <v>47.79825539239252</v>
+        <v>47.83130632370677</v>
       </c>
       <c r="P2" t="n">
-        <v>438.574896420254</v>
+        <v>438.1190720947484</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21397,28 +21397,28 @@
         <v>0.0466</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1680238489694451</v>
+        <v>-0.1628343780979981</v>
       </c>
       <c r="J3" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K3" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0269747426163246</v>
+        <v>0.02530897070681581</v>
       </c>
       <c r="M3" t="n">
-        <v>5.814086340215841</v>
+        <v>5.828989684564673</v>
       </c>
       <c r="N3" t="n">
-        <v>58.030219576633</v>
+        <v>58.29876340852806</v>
       </c>
       <c r="O3" t="n">
-        <v>7.617756859905217</v>
+        <v>7.635362690044794</v>
       </c>
       <c r="P3" t="n">
-        <v>381.3721351088178</v>
+        <v>381.3190844013636</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21475,28 +21475,28 @@
         <v>0.0803</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03560277891543369</v>
+        <v>0.035234913795292</v>
       </c>
       <c r="J4" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K4" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001713571935925251</v>
+        <v>0.0016850015497194</v>
       </c>
       <c r="M4" t="n">
-        <v>4.985756702138667</v>
+        <v>4.977765897246539</v>
       </c>
       <c r="N4" t="n">
-        <v>42.05549240431326</v>
+        <v>41.9712511198852</v>
       </c>
       <c r="O4" t="n">
-        <v>6.485020617107802</v>
+        <v>6.478522294465398</v>
       </c>
       <c r="P4" t="n">
-        <v>376.571490660677</v>
+        <v>376.5752490907419</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21553,28 +21553,28 @@
         <v>0.0602</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.002914159934056495</v>
+        <v>0.0008863345374778204</v>
       </c>
       <c r="J5" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K5" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L5" t="n">
-        <v>8.516506161071469e-06</v>
+        <v>7.881428917277944e-07</v>
       </c>
       <c r="M5" t="n">
-        <v>5.871696660796306</v>
+        <v>5.878360248768998</v>
       </c>
       <c r="N5" t="n">
-        <v>57.91658963709389</v>
+        <v>58.00617707872058</v>
       </c>
       <c r="O5" t="n">
-        <v>7.610294977009359</v>
+        <v>7.616178640152854</v>
       </c>
       <c r="P5" t="n">
-        <v>376.1955784749707</v>
+        <v>376.1573468293604</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21631,28 +21631,28 @@
         <v>0.0562</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05016754308241585</v>
+        <v>-0.05050712739676305</v>
       </c>
       <c r="J6" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="K6" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002136249145128555</v>
+        <v>0.002173952655976641</v>
       </c>
       <c r="M6" t="n">
-        <v>6.524735728564556</v>
+        <v>6.513074825128118</v>
       </c>
       <c r="N6" t="n">
-        <v>67.50445185595619</v>
+        <v>67.36631993844433</v>
       </c>
       <c r="O6" t="n">
-        <v>8.216109289435979</v>
+        <v>8.207698821133993</v>
       </c>
       <c r="P6" t="n">
-        <v>376.0953228385734</v>
+        <v>376.0987597175312</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">

--- a/data/nzd0049/nzd0049.xlsx
+++ b/data/nzd0049/nzd0049.xlsx
@@ -21310,13 +21310,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07530000000000001</v>
+        <v>0.1343</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0896</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>-1.101100932391324</v>
@@ -21388,13 +21388,13 @@
         <v>0.2498096109001461</v>
       </c>
       <c r="F3" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0441</v>
+        <v>0.0549</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0466</v>
+        <v>0.0672</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1628704636378878</v>
@@ -21466,13 +21466,13 @@
         <v>0.4998906516875276</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0658</v>
+        <v>0.0906</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0803</v>
+        <v>0.1345</v>
       </c>
       <c r="I4" t="n">
         <v>0.0352149759085108</v>
@@ -21544,13 +21544,13 @@
         <v>0.7496485611627169</v>
       </c>
       <c r="F5" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0543</v>
+        <v>0.0696</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0602</v>
+        <v>0.0917</v>
       </c>
       <c r="I5" t="n">
         <v>0.0008732946135464905</v>
@@ -21622,13 +21622,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0515</v>
+        <v>0.0441</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0562</v>
+        <v>0.0532</v>
       </c>
       <c r="I6" t="n">
         <v>-0.05052056560624712</v>

--- a/data/nzd0049/nzd0049.xlsx
+++ b/data/nzd0049/nzd0049.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G580"/>
+  <dimension ref="A1:G582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16097,6 +16097,60 @@
         <v>374.18</v>
       </c>
       <c r="G580" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>392.9</v>
+      </c>
+      <c r="C581" t="n">
+        <v>375.02</v>
+      </c>
+      <c r="D581" t="n">
+        <v>373.62</v>
+      </c>
+      <c r="E581" t="n">
+        <v>373.53</v>
+      </c>
+      <c r="F581" t="n">
+        <v>374.21</v>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>398.56</v>
+      </c>
+      <c r="C582" t="n">
+        <v>374.4</v>
+      </c>
+      <c r="D582" t="n">
+        <v>372.97</v>
+      </c>
+      <c r="E582" t="n">
+        <v>373.19</v>
+      </c>
+      <c r="F582" t="n">
+        <v>373</v>
+      </c>
+      <c r="G582" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -16113,7 +16167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B615"/>
+  <dimension ref="A1:B617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22271,6 +22325,26 @@
       </c>
       <c r="B615" t="n">
         <v>-0.12</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
@@ -22438,34 +22512,34 @@
         <v>0.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1324</v>
+        <v>0.1317</v>
       </c>
       <c r="H2" t="n">
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.6937992273845992</v>
+        <v>-0.7077631662067581</v>
       </c>
       <c r="J2" t="n">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K2" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0264570617662947</v>
+        <v>0.0276583366732136</v>
       </c>
       <c r="M2" t="n">
-        <v>27.20781570508694</v>
+        <v>27.18098107894847</v>
       </c>
       <c r="N2" t="n">
-        <v>994.0865078814306</v>
+        <v>992.1822708260482</v>
       </c>
       <c r="O2" t="n">
-        <v>31.52913744271211</v>
+        <v>31.49892491540066</v>
       </c>
       <c r="P2" t="n">
-        <v>434.893385870807</v>
+        <v>435.0357249283328</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22519,31 +22593,31 @@
         <v>0.055</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0672</v>
+        <v>0.0673</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1367084002916747</v>
+        <v>-0.1379527068438804</v>
       </c>
       <c r="J3" t="n">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K3" t="n">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1333214229218611</v>
+        <v>0.1360754726525349</v>
       </c>
       <c r="M3" t="n">
-        <v>2.037174138712712</v>
+        <v>2.036215340750315</v>
       </c>
       <c r="N3" t="n">
-        <v>6.855970762058432</v>
+        <v>6.844655691922781</v>
       </c>
       <c r="O3" t="n">
-        <v>2.618390872665583</v>
+        <v>2.616229288866475</v>
       </c>
       <c r="P3" t="n">
-        <v>380.176129676205</v>
+        <v>380.1887644675604</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22594,34 +22668,34 @@
         <v>0.11</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0905</v>
+        <v>0.0907</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1343</v>
+        <v>0.1342</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05438545494272901</v>
+        <v>0.05197169256655436</v>
       </c>
       <c r="J4" t="n">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K4" t="n">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0280037107011587</v>
+        <v>0.02562234224590387</v>
       </c>
       <c r="M4" t="n">
-        <v>1.883622556849634</v>
+        <v>1.890851130847343</v>
       </c>
       <c r="N4" t="n">
-        <v>5.793419660220174</v>
+        <v>5.818853349303133</v>
       </c>
       <c r="O4" t="n">
-        <v>2.406952359358235</v>
+        <v>2.412229953653493</v>
       </c>
       <c r="P4" t="n">
-        <v>375.4996654611268</v>
+        <v>375.5241732497605</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22672,34 +22746,34 @@
         <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0697</v>
+        <v>0.0696</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0917</v>
+        <v>0.0914</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001816498600050349</v>
+        <v>0.0005227731293546494</v>
       </c>
       <c r="J5" t="n">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K5" t="n">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="L5" t="n">
-        <v>2.549311724342473e-05</v>
+        <v>2.123171507828481e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>2.096720310739101</v>
+        <v>2.095382388189174</v>
       </c>
       <c r="N5" t="n">
-        <v>7.303929164406116</v>
+        <v>7.291816229553492</v>
       </c>
       <c r="O5" t="n">
-        <v>2.702578243900834</v>
+        <v>2.700336317859961</v>
       </c>
       <c r="P5" t="n">
-        <v>375.2594774948825</v>
+        <v>375.2726131180185</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22753,31 +22827,31 @@
         <v>0.0441</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0532</v>
+        <v>0.0531</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.06144362186499382</v>
+        <v>-0.0622504289793552</v>
       </c>
       <c r="J6" t="n">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K6" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02758977808943075</v>
+        <v>0.02847668430631844</v>
       </c>
       <c r="M6" t="n">
-        <v>2.122952165791561</v>
+        <v>2.120186340898139</v>
       </c>
       <c r="N6" t="n">
-        <v>7.520987503584371</v>
+        <v>7.501343055094229</v>
       </c>
       <c r="O6" t="n">
-        <v>2.742441887002233</v>
+        <v>2.738857983739615</v>
       </c>
       <c r="P6" t="n">
-        <v>376.4290983529154</v>
+        <v>376.4372881140776</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22815,7 +22889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G580"/>
+  <dimension ref="A1:G582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44275,6 +44349,80 @@
         </is>
       </c>
     </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>-35.014509644231616,173.8590589472537</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>-35.01517847721205,173.85865667579455</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>-35.015888337287265,173.85853497739592</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>-35.01659923921169,173.85865417515313</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>-35.01730918707852,173.85886534762471</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>-35.01452148041477,173.85911928839946</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>-35.015177508438384,173.8586499834647</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>-35.01588841930605,173.85852785409645</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>-35.01659981566433,173.85865051519232</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>-35.0173117348616,173.85885245247067</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
